--- a/Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09578BE6-54BC-4F2B-9B17-7AEA210EF21E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TELNY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13818100</v>
+        <v>12778800</v>
       </c>
       <c r="E8" s="3">
-        <v>15461200</v>
+        <v>12976500</v>
       </c>
       <c r="F8" s="3">
-        <v>15804000</v>
+        <v>14519500</v>
       </c>
       <c r="G8" s="3">
-        <v>13740900</v>
+        <v>14841400</v>
       </c>
       <c r="H8" s="3">
-        <v>12223700</v>
+        <v>12904000</v>
       </c>
       <c r="I8" s="3">
-        <v>12541800</v>
+        <v>11479200</v>
       </c>
       <c r="J8" s="3">
+        <v>11777900</v>
+      </c>
+      <c r="K8" s="3">
         <v>12147000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8554400</v>
+        <v>6062800</v>
       </c>
       <c r="E9" s="3">
-        <v>9781600</v>
+        <v>6236100</v>
       </c>
       <c r="F9" s="3">
-        <v>5863300</v>
+        <v>7716500</v>
       </c>
       <c r="G9" s="3">
-        <v>9005200</v>
+        <v>4069700</v>
       </c>
       <c r="H9" s="3">
-        <v>8006200</v>
+        <v>7139600</v>
       </c>
       <c r="I9" s="3">
-        <v>8514700</v>
+        <v>6373500</v>
       </c>
       <c r="J9" s="3">
+        <v>6759100</v>
+      </c>
+      <c r="K9" s="3">
         <v>4729200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5263700</v>
+        <v>6716100</v>
       </c>
       <c r="E10" s="3">
-        <v>5679600</v>
+        <v>6740400</v>
       </c>
       <c r="F10" s="3">
-        <v>9940700</v>
+        <v>6803000</v>
       </c>
       <c r="G10" s="3">
-        <v>4735700</v>
+        <v>10771700</v>
       </c>
       <c r="H10" s="3">
-        <v>4217500</v>
+        <v>5764400</v>
       </c>
       <c r="I10" s="3">
-        <v>4027100</v>
+        <v>5105600</v>
       </c>
       <c r="J10" s="3">
+        <v>5018800</v>
+      </c>
+      <c r="K10" s="3">
         <v>7417900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1131800</v>
+        <v>358100</v>
       </c>
       <c r="E14" s="3">
-        <v>1218600</v>
+        <v>966300</v>
       </c>
       <c r="F14" s="3">
-        <v>294700</v>
+        <v>1144400</v>
       </c>
       <c r="G14" s="3">
-        <v>106400</v>
+        <v>276700</v>
       </c>
       <c r="H14" s="3">
-        <v>126100</v>
+        <v>99900</v>
       </c>
       <c r="I14" s="3">
-        <v>2017300</v>
+        <v>118500</v>
       </c>
       <c r="J14" s="3">
+        <v>1894400</v>
+      </c>
+      <c r="K14" s="3">
         <v>598500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5040300</v>
+        <v>2327600</v>
       </c>
       <c r="E15" s="3">
-        <v>4886700</v>
+        <v>2270900</v>
       </c>
       <c r="F15" s="3">
-        <v>2266700</v>
+        <v>4585600</v>
       </c>
       <c r="G15" s="3">
-        <v>3829500</v>
+        <v>2119500</v>
       </c>
       <c r="H15" s="3">
-        <v>3291600</v>
+        <v>3585700</v>
       </c>
       <c r="I15" s="3">
-        <v>3551500</v>
+        <v>3084600</v>
       </c>
       <c r="J15" s="3">
+        <v>3323500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1887600</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11469900</v>
+        <v>10220900</v>
       </c>
       <c r="E17" s="3">
-        <v>12375000</v>
+        <v>10771200</v>
       </c>
       <c r="F17" s="3">
-        <v>12966600</v>
+        <v>11621300</v>
       </c>
       <c r="G17" s="3">
-        <v>10670000</v>
+        <v>12176800</v>
       </c>
       <c r="H17" s="3">
-        <v>9662500</v>
+        <v>10020100</v>
       </c>
       <c r="I17" s="3">
-        <v>11339900</v>
+        <v>9074000</v>
       </c>
       <c r="J17" s="3">
+        <v>10649200</v>
+      </c>
+      <c r="K17" s="3">
         <v>10865600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2348200</v>
+        <v>2557900</v>
       </c>
       <c r="E18" s="3">
-        <v>3086200</v>
+        <v>2205200</v>
       </c>
       <c r="F18" s="3">
-        <v>2837400</v>
+        <v>2898200</v>
       </c>
       <c r="G18" s="3">
-        <v>3070900</v>
+        <v>2664600</v>
       </c>
       <c r="H18" s="3">
-        <v>2561200</v>
+        <v>2883900</v>
       </c>
       <c r="I18" s="3">
-        <v>1201900</v>
+        <v>2405200</v>
       </c>
       <c r="J18" s="3">
+        <v>1128700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1281500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>660500</v>
+        <v>-128800</v>
       </c>
       <c r="E20" s="3">
-        <v>-106200</v>
+        <v>365900</v>
       </c>
       <c r="F20" s="3">
-        <v>-947300</v>
+        <v>-99700</v>
       </c>
       <c r="G20" s="3">
-        <v>-262600</v>
+        <v>-889600</v>
       </c>
       <c r="H20" s="3">
-        <v>62500</v>
+        <v>-246600</v>
       </c>
       <c r="I20" s="3">
-        <v>420100</v>
+        <v>58700</v>
       </c>
       <c r="J20" s="3">
+        <v>394500</v>
+      </c>
+      <c r="K20" s="3">
         <v>274100</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5731900</v>
+        <v>4845800</v>
       </c>
       <c r="E21" s="3">
-        <v>6423900</v>
+        <v>5140800</v>
       </c>
       <c r="F21" s="3">
-        <v>4416500</v>
+        <v>6048400</v>
       </c>
       <c r="G21" s="3">
-        <v>4720300</v>
+        <v>4159000</v>
       </c>
       <c r="H21" s="3">
-        <v>4329100</v>
+        <v>4441600</v>
       </c>
       <c r="I21" s="3">
-        <v>4352400</v>
+        <v>4073200</v>
       </c>
       <c r="J21" s="3">
+        <v>4099800</v>
+      </c>
+      <c r="K21" s="3">
         <v>3969400</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>591500</v>
+        <v>246700</v>
       </c>
       <c r="E22" s="3">
-        <v>600100</v>
+        <v>301100</v>
       </c>
       <c r="F22" s="3">
-        <v>284700</v>
+        <v>563500</v>
       </c>
       <c r="G22" s="3">
-        <v>421700</v>
+        <v>267400</v>
       </c>
       <c r="H22" s="3">
-        <v>453700</v>
+        <v>396000</v>
       </c>
       <c r="I22" s="3">
-        <v>294100</v>
+        <v>426100</v>
       </c>
       <c r="J22" s="3">
+        <v>276200</v>
+      </c>
+      <c r="K22" s="3">
         <v>5100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2417300</v>
+        <v>2182400</v>
       </c>
       <c r="E23" s="3">
-        <v>2379900</v>
+        <v>2270100</v>
       </c>
       <c r="F23" s="3">
-        <v>1605400</v>
+        <v>2235000</v>
       </c>
       <c r="G23" s="3">
-        <v>2386600</v>
+        <v>1507600</v>
       </c>
       <c r="H23" s="3">
-        <v>2170000</v>
+        <v>2241200</v>
       </c>
       <c r="I23" s="3">
-        <v>1327900</v>
+        <v>2037800</v>
       </c>
       <c r="J23" s="3">
+        <v>1247100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1550500</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>800300</v>
+        <v>715500</v>
       </c>
       <c r="E24" s="3">
-        <v>730400</v>
+        <v>751600</v>
       </c>
       <c r="F24" s="3">
-        <v>778900</v>
+        <v>685900</v>
       </c>
       <c r="G24" s="3">
-        <v>813500</v>
+        <v>731400</v>
       </c>
       <c r="H24" s="3">
-        <v>699000</v>
+        <v>764000</v>
       </c>
       <c r="I24" s="3">
-        <v>214900</v>
+        <v>656400</v>
       </c>
       <c r="J24" s="3">
+        <v>201800</v>
+      </c>
+      <c r="K24" s="3">
         <v>660600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1617000</v>
+        <v>1466900</v>
       </c>
       <c r="E26" s="3">
-        <v>1649500</v>
+        <v>1518500</v>
       </c>
       <c r="F26" s="3">
-        <v>826500</v>
+        <v>1549000</v>
       </c>
       <c r="G26" s="3">
-        <v>1573100</v>
+        <v>776100</v>
       </c>
       <c r="H26" s="3">
-        <v>1471000</v>
+        <v>1477200</v>
       </c>
       <c r="I26" s="3">
-        <v>1113000</v>
+        <v>1381400</v>
       </c>
       <c r="J26" s="3">
+        <v>1045200</v>
+      </c>
+      <c r="K26" s="3">
         <v>889900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1257500</v>
+        <v>1153000</v>
       </c>
       <c r="E27" s="3">
-        <v>1282700</v>
+        <v>1180900</v>
       </c>
       <c r="F27" s="3">
-        <v>420900</v>
+        <v>1204600</v>
       </c>
       <c r="G27" s="3">
-        <v>1119200</v>
+        <v>395300</v>
       </c>
       <c r="H27" s="3">
-        <v>1054700</v>
+        <v>1051000</v>
       </c>
       <c r="I27" s="3">
-        <v>1086100</v>
+        <v>990500</v>
       </c>
       <c r="J27" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="K27" s="3">
         <v>883400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,36 +1318,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>220000</v>
+        <v>552700</v>
       </c>
       <c r="E29" s="3">
-        <v>-933600</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>206600</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-876800</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-12300</v>
-      </c>
       <c r="H29" s="3">
-        <v>23800</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>-11600</v>
+      </c>
+      <c r="I29" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-660500</v>
+        <v>128800</v>
       </c>
       <c r="E32" s="3">
-        <v>106200</v>
+        <v>-365900</v>
       </c>
       <c r="F32" s="3">
-        <v>947300</v>
+        <v>99700</v>
       </c>
       <c r="G32" s="3">
-        <v>262600</v>
+        <v>889600</v>
       </c>
       <c r="H32" s="3">
-        <v>-62500</v>
+        <v>246600</v>
       </c>
       <c r="I32" s="3">
-        <v>-420100</v>
+        <v>-58700</v>
       </c>
       <c r="J32" s="3">
+        <v>-394500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-274100</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1477500</v>
+        <v>1705700</v>
       </c>
       <c r="E33" s="3">
-        <v>349100</v>
+        <v>1387500</v>
       </c>
       <c r="F33" s="3">
-        <v>420900</v>
+        <v>327800</v>
       </c>
       <c r="G33" s="3">
-        <v>1106900</v>
+        <v>395300</v>
       </c>
       <c r="H33" s="3">
-        <v>1078500</v>
+        <v>1039400</v>
       </c>
       <c r="I33" s="3">
-        <v>1086100</v>
+        <v>1012800</v>
       </c>
       <c r="J33" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="K33" s="3">
         <v>883400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1477500</v>
+        <v>1705700</v>
       </c>
       <c r="E35" s="3">
-        <v>349100</v>
+        <v>1387500</v>
       </c>
       <c r="F35" s="3">
-        <v>420900</v>
+        <v>327800</v>
       </c>
       <c r="G35" s="3">
-        <v>1106900</v>
+        <v>395300</v>
       </c>
       <c r="H35" s="3">
-        <v>1078500</v>
+        <v>1039400</v>
       </c>
       <c r="I35" s="3">
-        <v>1086100</v>
+        <v>1012800</v>
       </c>
       <c r="J35" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="K35" s="3">
         <v>883400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2779900</v>
+        <v>2141200</v>
       </c>
       <c r="E41" s="3">
-        <v>2846400</v>
+        <v>2610600</v>
       </c>
       <c r="F41" s="3">
-        <v>1720800</v>
+        <v>2673000</v>
       </c>
       <c r="G41" s="3">
-        <v>1522800</v>
+        <v>1616000</v>
       </c>
       <c r="H41" s="3">
-        <v>1476900</v>
+        <v>1430000</v>
       </c>
       <c r="I41" s="3">
-        <v>1085700</v>
+        <v>1386900</v>
       </c>
       <c r="J41" s="3">
+        <v>1019500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1590400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>124700</v>
+        <v>68500</v>
       </c>
       <c r="E42" s="3">
-        <v>288000</v>
+        <v>117100</v>
       </c>
       <c r="F42" s="3">
-        <v>148500</v>
+        <v>270500</v>
       </c>
       <c r="G42" s="3">
-        <v>122100</v>
+        <v>139400</v>
       </c>
       <c r="H42" s="3">
-        <v>124300</v>
+        <v>114600</v>
       </c>
       <c r="I42" s="3">
-        <v>349100</v>
+        <v>116700</v>
       </c>
       <c r="J42" s="3">
+        <v>327800</v>
+      </c>
+      <c r="K42" s="3">
         <v>282600</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1985300</v>
+        <v>2310100</v>
       </c>
       <c r="E43" s="3">
-        <v>1831300</v>
+        <v>1864300</v>
       </c>
       <c r="F43" s="3">
-        <v>1841500</v>
+        <v>1719700</v>
       </c>
       <c r="G43" s="3">
-        <v>1635300</v>
+        <v>1729300</v>
       </c>
       <c r="H43" s="3">
-        <v>1569200</v>
+        <v>1535700</v>
       </c>
       <c r="I43" s="3">
-        <v>5960000</v>
+        <v>1473700</v>
       </c>
       <c r="J43" s="3">
+        <v>5596900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1343000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>218600</v>
+        <v>197200</v>
       </c>
       <c r="E44" s="3">
-        <v>222200</v>
+        <v>205300</v>
       </c>
       <c r="F44" s="3">
-        <v>280000</v>
+        <v>208700</v>
       </c>
       <c r="G44" s="3">
-        <v>253000</v>
+        <v>263000</v>
       </c>
       <c r="H44" s="3">
-        <v>195700</v>
+        <v>237600</v>
       </c>
       <c r="I44" s="3">
-        <v>147700</v>
+        <v>183800</v>
       </c>
       <c r="J44" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K44" s="3">
         <v>122300</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1484200</v>
+        <v>408300</v>
       </c>
       <c r="E45" s="3">
-        <v>1345900</v>
+        <v>1393800</v>
       </c>
       <c r="F45" s="3">
-        <v>1226500</v>
+        <v>1264000</v>
       </c>
       <c r="G45" s="3">
-        <v>1156400</v>
+        <v>1151800</v>
       </c>
       <c r="H45" s="3">
-        <v>928400</v>
+        <v>1086000</v>
       </c>
       <c r="I45" s="3">
-        <v>988700</v>
+        <v>871900</v>
       </c>
       <c r="J45" s="3">
+        <v>928500</v>
+      </c>
+      <c r="K45" s="3">
         <v>892900</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6592600</v>
+        <v>5125300</v>
       </c>
       <c r="E46" s="3">
-        <v>6533800</v>
+        <v>6191100</v>
       </c>
       <c r="F46" s="3">
-        <v>5217200</v>
+        <v>6135800</v>
       </c>
       <c r="G46" s="3">
-        <v>4689700</v>
+        <v>4899400</v>
       </c>
       <c r="H46" s="3">
-        <v>4294500</v>
+        <v>4404100</v>
       </c>
       <c r="I46" s="3">
-        <v>3691700</v>
+        <v>4033000</v>
       </c>
       <c r="J46" s="3">
+        <v>3466900</v>
+      </c>
+      <c r="K46" s="3">
         <v>4231300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1417500</v>
+        <v>1178600</v>
       </c>
       <c r="E47" s="3">
-        <v>2318700</v>
+        <v>1331100</v>
       </c>
       <c r="F47" s="3">
-        <v>2818100</v>
+        <v>2177400</v>
       </c>
       <c r="G47" s="3">
-        <v>3398500</v>
+        <v>2646500</v>
       </c>
       <c r="H47" s="3">
-        <v>4503700</v>
+        <v>3191500</v>
       </c>
       <c r="I47" s="3">
-        <v>5143300</v>
+        <v>4229300</v>
       </c>
       <c r="J47" s="3">
+        <v>4830100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4188100</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9316200</v>
+        <v>8494500</v>
       </c>
       <c r="E48" s="3">
-        <v>8879600</v>
+        <v>8748700</v>
       </c>
       <c r="F48" s="3">
-        <v>8533700</v>
+        <v>8338700</v>
       </c>
       <c r="G48" s="3">
-        <v>7344000</v>
+        <v>8013900</v>
       </c>
       <c r="H48" s="3">
-        <v>6109100</v>
-      </c>
-      <c r="I48" s="3" t="s">
+        <v>6896700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5737000</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6118100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7033900</v>
+        <v>5879100</v>
       </c>
       <c r="E49" s="3">
-        <v>7099100</v>
+        <v>6605500</v>
       </c>
       <c r="F49" s="3">
-        <v>7948300</v>
+        <v>6666700</v>
       </c>
       <c r="G49" s="3">
-        <v>7703300</v>
+        <v>7464200</v>
       </c>
       <c r="H49" s="3">
-        <v>6622800</v>
+        <v>7234100</v>
       </c>
       <c r="I49" s="3">
-        <v>15020200</v>
+        <v>6219400</v>
       </c>
       <c r="J49" s="3">
+        <v>14105300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5415200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>517500</v>
+        <v>1469800</v>
       </c>
       <c r="E52" s="3">
-        <v>608000</v>
+        <v>486000</v>
       </c>
       <c r="F52" s="3">
-        <v>747900</v>
+        <v>571000</v>
       </c>
       <c r="G52" s="3">
-        <v>754600</v>
+        <v>702400</v>
       </c>
       <c r="H52" s="3">
-        <v>783600</v>
+        <v>708600</v>
       </c>
       <c r="I52" s="3">
-        <v>1285500</v>
+        <v>735800</v>
       </c>
       <c r="J52" s="3">
+        <v>1207200</v>
+      </c>
+      <c r="K52" s="3">
         <v>556800</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24877600</v>
+        <v>22147400</v>
       </c>
       <c r="E54" s="3">
-        <v>25439100</v>
+        <v>23362400</v>
       </c>
       <c r="F54" s="3">
-        <v>25265300</v>
+        <v>23889700</v>
       </c>
       <c r="G54" s="3">
-        <v>23890000</v>
+        <v>23726400</v>
       </c>
       <c r="H54" s="3">
-        <v>22313700</v>
+        <v>22434900</v>
       </c>
       <c r="I54" s="3">
-        <v>20698100</v>
+        <v>20954600</v>
       </c>
       <c r="J54" s="3">
+        <v>19437400</v>
+      </c>
+      <c r="K54" s="3">
         <v>20509600</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1083400</v>
+        <v>948800</v>
       </c>
       <c r="E57" s="3">
-        <v>575200</v>
+        <v>1017400</v>
       </c>
       <c r="F57" s="3">
-        <v>523000</v>
+        <v>540200</v>
       </c>
       <c r="G57" s="3">
-        <v>412200</v>
+        <v>491200</v>
       </c>
       <c r="H57" s="3">
-        <v>327600</v>
+        <v>387100</v>
       </c>
       <c r="I57" s="3">
-        <v>3790100</v>
+        <v>307700</v>
       </c>
       <c r="J57" s="3">
+        <v>3559300</v>
+      </c>
+      <c r="K57" s="3">
         <v>800700</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800100</v>
+        <v>1822500</v>
       </c>
       <c r="E58" s="3">
-        <v>3202100</v>
+        <v>2629600</v>
       </c>
       <c r="F58" s="3">
-        <v>1556800</v>
+        <v>3007100</v>
       </c>
       <c r="G58" s="3">
-        <v>921500</v>
+        <v>1462000</v>
       </c>
       <c r="H58" s="3">
-        <v>1794600</v>
+        <v>865400</v>
       </c>
       <c r="I58" s="3">
-        <v>1266900</v>
+        <v>1685300</v>
       </c>
       <c r="J58" s="3">
+        <v>1189700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1329400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5571400</v>
+        <v>5039400</v>
       </c>
       <c r="E59" s="3">
-        <v>5793000</v>
+        <v>5232100</v>
       </c>
       <c r="F59" s="3">
-        <v>5932000</v>
+        <v>5440200</v>
       </c>
       <c r="G59" s="3">
-        <v>5489800</v>
+        <v>5570700</v>
       </c>
       <c r="H59" s="3">
-        <v>4243200</v>
+        <v>5155400</v>
       </c>
       <c r="I59" s="3">
-        <v>6129200</v>
+        <v>3984800</v>
       </c>
       <c r="J59" s="3">
+        <v>5755900</v>
+      </c>
+      <c r="K59" s="3">
         <v>3739300</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9455000</v>
+        <v>7810700</v>
       </c>
       <c r="E60" s="3">
-        <v>9570300</v>
+        <v>8879100</v>
       </c>
       <c r="F60" s="3">
-        <v>8011800</v>
+        <v>8987400</v>
       </c>
       <c r="G60" s="3">
-        <v>6486200</v>
+        <v>7523800</v>
       </c>
       <c r="H60" s="3">
-        <v>5469800</v>
+        <v>6091100</v>
       </c>
       <c r="I60" s="3">
-        <v>5416900</v>
+        <v>5136700</v>
       </c>
       <c r="J60" s="3">
+        <v>5087000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5867600</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6360700</v>
+        <v>6475700</v>
       </c>
       <c r="E61" s="3">
-        <v>7446200</v>
+        <v>5973300</v>
       </c>
       <c r="F61" s="3">
-        <v>7866800</v>
+        <v>6992700</v>
       </c>
       <c r="G61" s="3">
-        <v>7535200</v>
+        <v>7387600</v>
       </c>
       <c r="H61" s="3">
-        <v>6288400</v>
+        <v>7076300</v>
       </c>
       <c r="I61" s="3">
-        <v>4910500</v>
+        <v>5905400</v>
       </c>
       <c r="J61" s="3">
+        <v>4611500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2855300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1376000</v>
+        <v>1555600</v>
       </c>
       <c r="E62" s="3">
-        <v>1592300</v>
+        <v>1292200</v>
       </c>
       <c r="F62" s="3">
-        <v>1603300</v>
+        <v>1495300</v>
       </c>
       <c r="G62" s="3">
-        <v>1421900</v>
+        <v>1505600</v>
       </c>
       <c r="H62" s="3">
-        <v>1056800</v>
+        <v>1335300</v>
       </c>
       <c r="I62" s="3">
-        <v>1106200</v>
+        <v>992400</v>
       </c>
       <c r="J62" s="3">
+        <v>1038900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1071600</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17788400</v>
+        <v>16422000</v>
       </c>
       <c r="E66" s="3">
-        <v>19165800</v>
+        <v>16704900</v>
       </c>
       <c r="F66" s="3">
-        <v>18056400</v>
+        <v>17998400</v>
       </c>
       <c r="G66" s="3">
-        <v>16029000</v>
+        <v>16956600</v>
       </c>
       <c r="H66" s="3">
-        <v>13267800</v>
+        <v>15052700</v>
       </c>
       <c r="I66" s="3">
-        <v>11653500</v>
+        <v>12459700</v>
       </c>
       <c r="J66" s="3">
+        <v>10943700</v>
+      </c>
+      <c r="K66" s="3">
         <v>10153300</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6395400</v>
+        <v>4955100</v>
       </c>
       <c r="E72" s="3">
-        <v>5136300</v>
+        <v>6005900</v>
       </c>
       <c r="F72" s="3">
-        <v>5583800</v>
+        <v>4823500</v>
       </c>
       <c r="G72" s="3">
-        <v>6608500</v>
+        <v>5243700</v>
       </c>
       <c r="H72" s="3">
-        <v>8538200</v>
+        <v>6206000</v>
       </c>
       <c r="I72" s="3">
-        <v>18734000</v>
+        <v>8018100</v>
       </c>
       <c r="J72" s="3">
+        <v>17592900</v>
+      </c>
+      <c r="K72" s="3">
         <v>9950600</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7089300</v>
+        <v>5725400</v>
       </c>
       <c r="E76" s="3">
-        <v>6273400</v>
+        <v>6657500</v>
       </c>
       <c r="F76" s="3">
-        <v>7208900</v>
+        <v>5891300</v>
       </c>
       <c r="G76" s="3">
-        <v>7861000</v>
+        <v>6769800</v>
       </c>
       <c r="H76" s="3">
-        <v>9045900</v>
+        <v>7382200</v>
       </c>
       <c r="I76" s="3">
-        <v>9044700</v>
+        <v>8494900</v>
       </c>
       <c r="J76" s="3">
+        <v>8493800</v>
+      </c>
+      <c r="K76" s="3">
         <v>10356200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1477500</v>
+        <v>1705700</v>
       </c>
       <c r="E81" s="3">
-        <v>349100</v>
+        <v>1387500</v>
       </c>
       <c r="F81" s="3">
-        <v>420900</v>
+        <v>327800</v>
       </c>
       <c r="G81" s="3">
-        <v>1106900</v>
+        <v>395300</v>
       </c>
       <c r="H81" s="3">
-        <v>1078500</v>
+        <v>1039400</v>
       </c>
       <c r="I81" s="3">
-        <v>1086100</v>
+        <v>1012800</v>
       </c>
       <c r="J81" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="K81" s="3">
         <v>883400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2733100</v>
+        <v>2413800</v>
       </c>
       <c r="E83" s="3">
-        <v>3456500</v>
+        <v>2566600</v>
       </c>
       <c r="F83" s="3">
-        <v>2535700</v>
+        <v>3245900</v>
       </c>
       <c r="G83" s="3">
-        <v>1919000</v>
+        <v>2381200</v>
       </c>
       <c r="H83" s="3">
-        <v>1711700</v>
+        <v>1802200</v>
       </c>
       <c r="I83" s="3">
-        <v>2740300</v>
+        <v>1607400</v>
       </c>
       <c r="J83" s="3">
+        <v>2573400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2422700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5021000</v>
+        <v>4214100</v>
       </c>
       <c r="E89" s="3">
-        <v>4904600</v>
+        <v>4715200</v>
       </c>
       <c r="F89" s="3">
-        <v>4575300</v>
+        <v>4605900</v>
       </c>
       <c r="G89" s="3">
-        <v>4173800</v>
+        <v>4296600</v>
       </c>
       <c r="H89" s="3">
-        <v>4560900</v>
+        <v>3919600</v>
       </c>
       <c r="I89" s="3">
-        <v>2959400</v>
+        <v>4283100</v>
       </c>
       <c r="J89" s="3">
+        <v>2779200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3340400</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2555500</v>
+        <v>-2432900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2925500</v>
+        <v>-2399900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2610000</v>
+        <v>-2747300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2551400</v>
+        <v>-2451000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1925000</v>
+        <v>-2396000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2082800</v>
+        <v>-1807700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1955900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1635100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1488800</v>
+        <v>-71000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2602200</v>
+        <v>-1398200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2500600</v>
+        <v>-2443700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2588900</v>
+        <v>-2348300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2541700</v>
+        <v>-2431200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2825800</v>
+        <v>-2386900</v>
       </c>
       <c r="J94" s="3">
+        <v>-2653700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1781800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1472700</v>
+        <v>-2128300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1386600</v>
+        <v>-1383000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1322300</v>
+        <v>-1302200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1302900</v>
+        <v>-1241700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1139200</v>
+        <v>-1223600</v>
       </c>
       <c r="I96" s="3">
-        <v>-977200</v>
+        <v>-1069800</v>
       </c>
       <c r="J96" s="3">
+        <v>-917600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-765200</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3666100</v>
+        <v>-4572200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1114300</v>
+        <v>-3442800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1854600</v>
+        <v>-1046400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1709700</v>
+        <v>-1741600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1697600</v>
+        <v>-1605500</v>
       </c>
       <c r="I100" s="3">
-        <v>-582300</v>
+        <v>-1594200</v>
       </c>
       <c r="J100" s="3">
+        <v>-546900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1586600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>56000</v>
+        <v>-32900</v>
       </c>
       <c r="E101" s="3">
-        <v>-55000</v>
+        <v>52600</v>
       </c>
       <c r="F101" s="3">
-        <v>10000</v>
+        <v>-51600</v>
       </c>
       <c r="G101" s="3">
-        <v>114300</v>
+        <v>9400</v>
       </c>
       <c r="H101" s="3">
-        <v>69900</v>
+        <v>107300</v>
       </c>
       <c r="I101" s="3">
-        <v>-56200</v>
+        <v>65700</v>
       </c>
       <c r="J101" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-59300</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-77900</v>
+        <v>-462000</v>
       </c>
       <c r="E102" s="3">
-        <v>1133100</v>
+        <v>-73200</v>
       </c>
       <c r="F102" s="3">
-        <v>230100</v>
+        <v>1064100</v>
       </c>
       <c r="G102" s="3">
-        <v>-10500</v>
+        <v>216100</v>
       </c>
       <c r="H102" s="3">
-        <v>391500</v>
+        <v>-9800</v>
       </c>
       <c r="I102" s="3">
-        <v>-504900</v>
+        <v>367600</v>
       </c>
       <c r="J102" s="3">
+        <v>-474200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-87000</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/TELNY_YR_FIN.xlsx
+++ b/Financials/Yearly/TELNY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09578BE6-54BC-4F2B-9B17-7AEA210EF21E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TELNY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12778800</v>
+        <v>11973200</v>
       </c>
       <c r="E8" s="3">
-        <v>12976500</v>
+        <v>12158400</v>
       </c>
       <c r="F8" s="3">
-        <v>14519500</v>
+        <v>13604100</v>
       </c>
       <c r="G8" s="3">
-        <v>14841400</v>
+        <v>13905700</v>
       </c>
       <c r="H8" s="3">
-        <v>12904000</v>
+        <v>12090500</v>
       </c>
       <c r="I8" s="3">
-        <v>11479200</v>
+        <v>10755500</v>
       </c>
       <c r="J8" s="3">
-        <v>11777900</v>
+        <v>11035400</v>
       </c>
       <c r="K8" s="3">
         <v>12147000</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6062800</v>
+        <v>2840300</v>
       </c>
       <c r="E9" s="3">
-        <v>6236100</v>
+        <v>2921400</v>
       </c>
       <c r="F9" s="3">
-        <v>7716500</v>
+        <v>7230000</v>
       </c>
       <c r="G9" s="3">
-        <v>4069700</v>
+        <v>3813100</v>
       </c>
       <c r="H9" s="3">
-        <v>7139600</v>
+        <v>6689500</v>
       </c>
       <c r="I9" s="3">
-        <v>6373500</v>
+        <v>5971700</v>
       </c>
       <c r="J9" s="3">
-        <v>6759100</v>
+        <v>6333000</v>
       </c>
       <c r="K9" s="3">
         <v>4729200</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6716100</v>
+        <v>9132900</v>
       </c>
       <c r="E10" s="3">
-        <v>6740400</v>
+        <v>9236900</v>
       </c>
       <c r="F10" s="3">
-        <v>6803000</v>
+        <v>6374100</v>
       </c>
       <c r="G10" s="3">
-        <v>10771700</v>
+        <v>10092600</v>
       </c>
       <c r="H10" s="3">
-        <v>5764400</v>
+        <v>5401000</v>
       </c>
       <c r="I10" s="3">
-        <v>5105600</v>
+        <v>4783800</v>
       </c>
       <c r="J10" s="3">
-        <v>5018800</v>
+        <v>4702400</v>
       </c>
       <c r="K10" s="3">
         <v>7417900</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>358100</v>
+        <v>335600</v>
       </c>
       <c r="E14" s="3">
-        <v>966300</v>
+        <v>905300</v>
       </c>
       <c r="F14" s="3">
-        <v>1144400</v>
+        <v>1072200</v>
       </c>
       <c r="G14" s="3">
-        <v>276700</v>
+        <v>259300</v>
       </c>
       <c r="H14" s="3">
-        <v>99900</v>
+        <v>93600</v>
       </c>
       <c r="I14" s="3">
-        <v>118500</v>
+        <v>111000</v>
       </c>
       <c r="J14" s="3">
-        <v>1894400</v>
+        <v>1775000</v>
       </c>
       <c r="K14" s="3">
         <v>598500</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2327600</v>
+        <v>2180900</v>
       </c>
       <c r="E15" s="3">
-        <v>2270900</v>
+        <v>2127700</v>
       </c>
       <c r="F15" s="3">
-        <v>4585600</v>
+        <v>4296500</v>
       </c>
       <c r="G15" s="3">
-        <v>2119500</v>
+        <v>1985900</v>
       </c>
       <c r="H15" s="3">
-        <v>3585700</v>
+        <v>3359600</v>
       </c>
       <c r="I15" s="3">
-        <v>3084600</v>
+        <v>2890200</v>
       </c>
       <c r="J15" s="3">
-        <v>3323500</v>
+        <v>3114000</v>
       </c>
       <c r="K15" s="3">
         <v>1887600</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10220900</v>
+        <v>9576500</v>
       </c>
       <c r="E17" s="3">
-        <v>10771200</v>
+        <v>10092200</v>
       </c>
       <c r="F17" s="3">
-        <v>11621300</v>
+        <v>10888600</v>
       </c>
       <c r="G17" s="3">
-        <v>12176800</v>
+        <v>11409100</v>
       </c>
       <c r="H17" s="3">
-        <v>10020100</v>
+        <v>9388400</v>
       </c>
       <c r="I17" s="3">
-        <v>9074000</v>
+        <v>8501900</v>
       </c>
       <c r="J17" s="3">
-        <v>10649200</v>
+        <v>9977800</v>
       </c>
       <c r="K17" s="3">
         <v>10865600</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2557900</v>
+        <v>2396700</v>
       </c>
       <c r="E18" s="3">
-        <v>2205200</v>
+        <v>2066200</v>
       </c>
       <c r="F18" s="3">
-        <v>2898200</v>
+        <v>2715500</v>
       </c>
       <c r="G18" s="3">
-        <v>2664600</v>
+        <v>2496600</v>
       </c>
       <c r="H18" s="3">
-        <v>2883900</v>
+        <v>2702100</v>
       </c>
       <c r="I18" s="3">
-        <v>2405200</v>
+        <v>2253600</v>
       </c>
       <c r="J18" s="3">
-        <v>1128700</v>
+        <v>1057600</v>
       </c>
       <c r="K18" s="3">
         <v>1281500</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-128800</v>
+        <v>-120600</v>
       </c>
       <c r="E20" s="3">
-        <v>365900</v>
+        <v>342800</v>
       </c>
       <c r="F20" s="3">
-        <v>-99700</v>
+        <v>-93400</v>
       </c>
       <c r="G20" s="3">
-        <v>-889600</v>
+        <v>-833500</v>
       </c>
       <c r="H20" s="3">
-        <v>-246600</v>
+        <v>-231100</v>
       </c>
       <c r="I20" s="3">
-        <v>58700</v>
+        <v>55000</v>
       </c>
       <c r="J20" s="3">
-        <v>394500</v>
+        <v>369600</v>
       </c>
       <c r="K20" s="3">
         <v>274100</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4845800</v>
+        <v>4539500</v>
       </c>
       <c r="E21" s="3">
-        <v>5140800</v>
+        <v>4815800</v>
       </c>
       <c r="F21" s="3">
-        <v>6048400</v>
+        <v>5665900</v>
       </c>
       <c r="G21" s="3">
-        <v>4159000</v>
+        <v>3896000</v>
       </c>
       <c r="H21" s="3">
-        <v>4441600</v>
+        <v>4160900</v>
       </c>
       <c r="I21" s="3">
-        <v>4073200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4099800</v>
+        <v>3815900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>3969400</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>246700</v>
+        <v>231200</v>
       </c>
       <c r="E22" s="3">
-        <v>301100</v>
+        <v>282100</v>
       </c>
       <c r="F22" s="3">
-        <v>563500</v>
+        <v>528000</v>
       </c>
       <c r="G22" s="3">
-        <v>267400</v>
+        <v>250500</v>
       </c>
       <c r="H22" s="3">
-        <v>396000</v>
+        <v>371000</v>
       </c>
       <c r="I22" s="3">
-        <v>426100</v>
+        <v>399200</v>
       </c>
       <c r="J22" s="3">
-        <v>276200</v>
+        <v>258700</v>
       </c>
       <c r="K22" s="3">
         <v>5100</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2182400</v>
+        <v>2044800</v>
       </c>
       <c r="E23" s="3">
-        <v>2270100</v>
+        <v>2126900</v>
       </c>
       <c r="F23" s="3">
-        <v>2235000</v>
+        <v>2094100</v>
       </c>
       <c r="G23" s="3">
-        <v>1507600</v>
+        <v>1412500</v>
       </c>
       <c r="H23" s="3">
-        <v>2241200</v>
+        <v>2099900</v>
       </c>
       <c r="I23" s="3">
-        <v>2037800</v>
+        <v>1909300</v>
       </c>
       <c r="J23" s="3">
-        <v>1247100</v>
+        <v>1168400</v>
       </c>
       <c r="K23" s="3">
         <v>1550500</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>715500</v>
+        <v>670400</v>
       </c>
       <c r="E24" s="3">
-        <v>751600</v>
+        <v>704200</v>
       </c>
       <c r="F24" s="3">
-        <v>685900</v>
+        <v>642700</v>
       </c>
       <c r="G24" s="3">
-        <v>731400</v>
+        <v>685300</v>
       </c>
       <c r="H24" s="3">
-        <v>764000</v>
+        <v>715800</v>
       </c>
       <c r="I24" s="3">
-        <v>656400</v>
+        <v>615000</v>
       </c>
       <c r="J24" s="3">
-        <v>201800</v>
+        <v>189100</v>
       </c>
       <c r="K24" s="3">
         <v>660600</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1466900</v>
+        <v>1374500</v>
       </c>
       <c r="E26" s="3">
-        <v>1518500</v>
+        <v>1422700</v>
       </c>
       <c r="F26" s="3">
-        <v>1549000</v>
+        <v>1451400</v>
       </c>
       <c r="G26" s="3">
-        <v>776100</v>
+        <v>727200</v>
       </c>
       <c r="H26" s="3">
-        <v>1477200</v>
+        <v>1384100</v>
       </c>
       <c r="I26" s="3">
-        <v>1381400</v>
+        <v>1294300</v>
       </c>
       <c r="J26" s="3">
-        <v>1045200</v>
+        <v>979300</v>
       </c>
       <c r="K26" s="3">
         <v>889900</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1153000</v>
+        <v>1080300</v>
       </c>
       <c r="E27" s="3">
-        <v>1180900</v>
+        <v>1106500</v>
       </c>
       <c r="F27" s="3">
-        <v>1204600</v>
+        <v>1128600</v>
       </c>
       <c r="G27" s="3">
-        <v>395300</v>
+        <v>370400</v>
       </c>
       <c r="H27" s="3">
-        <v>1051000</v>
+        <v>984800</v>
       </c>
       <c r="I27" s="3">
-        <v>990500</v>
+        <v>928000</v>
       </c>
       <c r="J27" s="3">
-        <v>1020000</v>
+        <v>955700</v>
       </c>
       <c r="K27" s="3">
         <v>883400</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,27 +1288,27 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>552700</v>
+        <v>517800</v>
       </c>
       <c r="E29" s="3">
-        <v>206600</v>
+        <v>193500</v>
       </c>
       <c r="F29" s="3">
-        <v>-876800</v>
+        <v>-821500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="I29" s="3">
-        <v>22300</v>
+        <v>20900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>128800</v>
+        <v>120600</v>
       </c>
       <c r="E32" s="3">
-        <v>-365900</v>
+        <v>-342800</v>
       </c>
       <c r="F32" s="3">
-        <v>99700</v>
+        <v>93400</v>
       </c>
       <c r="G32" s="3">
-        <v>889600</v>
+        <v>833500</v>
       </c>
       <c r="H32" s="3">
-        <v>246600</v>
+        <v>231100</v>
       </c>
       <c r="I32" s="3">
-        <v>-58700</v>
+        <v>-55000</v>
       </c>
       <c r="J32" s="3">
-        <v>-394500</v>
+        <v>-369600</v>
       </c>
       <c r="K32" s="3">
         <v>-274100</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1705700</v>
+        <v>1598200</v>
       </c>
       <c r="E33" s="3">
-        <v>1387500</v>
+        <v>1300000</v>
       </c>
       <c r="F33" s="3">
-        <v>327800</v>
+        <v>307100</v>
       </c>
       <c r="G33" s="3">
-        <v>395300</v>
+        <v>370400</v>
       </c>
       <c r="H33" s="3">
-        <v>1039400</v>
+        <v>973900</v>
       </c>
       <c r="I33" s="3">
-        <v>1012800</v>
+        <v>949000</v>
       </c>
       <c r="J33" s="3">
-        <v>1020000</v>
+        <v>955700</v>
       </c>
       <c r="K33" s="3">
         <v>883400</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1705700</v>
+        <v>1598200</v>
       </c>
       <c r="E35" s="3">
-        <v>1387500</v>
+        <v>1300000</v>
       </c>
       <c r="F35" s="3">
-        <v>327800</v>
+        <v>307100</v>
       </c>
       <c r="G35" s="3">
-        <v>395300</v>
+        <v>370400</v>
       </c>
       <c r="H35" s="3">
-        <v>1039400</v>
+        <v>973900</v>
       </c>
       <c r="I35" s="3">
-        <v>1012800</v>
+        <v>949000</v>
       </c>
       <c r="J35" s="3">
-        <v>1020000</v>
+        <v>955700</v>
       </c>
       <c r="K35" s="3">
         <v>883400</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,237 +1561,237 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2141200</v>
+        <v>2006200</v>
       </c>
       <c r="E41" s="3">
-        <v>2610600</v>
+        <v>2446000</v>
       </c>
       <c r="F41" s="3">
-        <v>2673000</v>
+        <v>2504500</v>
       </c>
       <c r="G41" s="3">
-        <v>1616000</v>
+        <v>1514100</v>
       </c>
       <c r="H41" s="3">
-        <v>1430000</v>
+        <v>1339900</v>
       </c>
       <c r="I41" s="3">
-        <v>1386900</v>
+        <v>1299500</v>
       </c>
       <c r="J41" s="3">
-        <v>1019500</v>
+        <v>955300</v>
       </c>
       <c r="K41" s="3">
         <v>1590400</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>68500</v>
+        <v>64200</v>
       </c>
       <c r="E42" s="3">
-        <v>117100</v>
+        <v>109700</v>
       </c>
       <c r="F42" s="3">
-        <v>270500</v>
+        <v>253400</v>
       </c>
       <c r="G42" s="3">
-        <v>139400</v>
+        <v>130600</v>
       </c>
       <c r="H42" s="3">
-        <v>114600</v>
+        <v>107400</v>
       </c>
       <c r="I42" s="3">
-        <v>116700</v>
+        <v>109400</v>
       </c>
       <c r="J42" s="3">
-        <v>327800</v>
+        <v>307100</v>
       </c>
       <c r="K42" s="3">
         <v>282600</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2310100</v>
+        <v>2164500</v>
       </c>
       <c r="E43" s="3">
-        <v>1864300</v>
+        <v>1746800</v>
       </c>
       <c r="F43" s="3">
-        <v>1719700</v>
+        <v>1611300</v>
       </c>
       <c r="G43" s="3">
-        <v>1729300</v>
+        <v>1620300</v>
       </c>
       <c r="H43" s="3">
-        <v>1535700</v>
+        <v>1438900</v>
       </c>
       <c r="I43" s="3">
-        <v>1473700</v>
+        <v>1380800</v>
       </c>
       <c r="J43" s="3">
-        <v>5596900</v>
+        <v>5244100</v>
       </c>
       <c r="K43" s="3">
         <v>1343000</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>197200</v>
+        <v>184800</v>
       </c>
       <c r="E44" s="3">
-        <v>205300</v>
+        <v>192400</v>
       </c>
       <c r="F44" s="3">
-        <v>208700</v>
+        <v>195500</v>
       </c>
       <c r="G44" s="3">
-        <v>263000</v>
+        <v>246400</v>
       </c>
       <c r="H44" s="3">
-        <v>237600</v>
+        <v>222600</v>
       </c>
       <c r="I44" s="3">
-        <v>183800</v>
+        <v>172200</v>
       </c>
       <c r="J44" s="3">
-        <v>138700</v>
+        <v>130000</v>
       </c>
       <c r="K44" s="3">
         <v>122300</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>408300</v>
+        <v>382500</v>
       </c>
       <c r="E45" s="3">
-        <v>1393800</v>
+        <v>1305900</v>
       </c>
       <c r="F45" s="3">
-        <v>1264000</v>
+        <v>1184300</v>
       </c>
       <c r="G45" s="3">
-        <v>1151800</v>
+        <v>1079200</v>
       </c>
       <c r="H45" s="3">
-        <v>1086000</v>
+        <v>1017500</v>
       </c>
       <c r="I45" s="3">
-        <v>871900</v>
+        <v>816900</v>
       </c>
       <c r="J45" s="3">
-        <v>928500</v>
+        <v>870000</v>
       </c>
       <c r="K45" s="3">
         <v>892900</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5125300</v>
+        <v>4802200</v>
       </c>
       <c r="E46" s="3">
-        <v>6191100</v>
+        <v>5800700</v>
       </c>
       <c r="F46" s="3">
-        <v>6135800</v>
+        <v>5749000</v>
       </c>
       <c r="G46" s="3">
-        <v>4899400</v>
+        <v>4590500</v>
       </c>
       <c r="H46" s="3">
-        <v>4404100</v>
+        <v>4126400</v>
       </c>
       <c r="I46" s="3">
-        <v>4033000</v>
+        <v>3778700</v>
       </c>
       <c r="J46" s="3">
-        <v>3466900</v>
+        <v>3248300</v>
       </c>
       <c r="K46" s="3">
         <v>4231300</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1178600</v>
+        <v>1104300</v>
       </c>
       <c r="E47" s="3">
-        <v>1331100</v>
+        <v>1247200</v>
       </c>
       <c r="F47" s="3">
-        <v>2177400</v>
+        <v>2040200</v>
       </c>
       <c r="G47" s="3">
-        <v>2646500</v>
+        <v>2479600</v>
       </c>
       <c r="H47" s="3">
-        <v>3191500</v>
+        <v>2990300</v>
       </c>
       <c r="I47" s="3">
-        <v>4229300</v>
+        <v>3962700</v>
       </c>
       <c r="J47" s="3">
-        <v>4830100</v>
+        <v>4525600</v>
       </c>
       <c r="K47" s="3">
         <v>4188100</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8494500</v>
+        <v>7958900</v>
       </c>
       <c r="E48" s="3">
-        <v>8748700</v>
+        <v>8197200</v>
       </c>
       <c r="F48" s="3">
-        <v>8338700</v>
+        <v>7813000</v>
       </c>
       <c r="G48" s="3">
-        <v>8013900</v>
+        <v>7508700</v>
       </c>
       <c r="H48" s="3">
-        <v>6896700</v>
+        <v>6461900</v>
       </c>
       <c r="I48" s="3">
-        <v>5737000</v>
+        <v>5375400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -1836,37 +1801,37 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5879100</v>
+        <v>5508500</v>
       </c>
       <c r="E49" s="3">
-        <v>6605500</v>
+        <v>6189000</v>
       </c>
       <c r="F49" s="3">
-        <v>6666700</v>
+        <v>6246400</v>
       </c>
       <c r="G49" s="3">
-        <v>7464200</v>
+        <v>6993600</v>
       </c>
       <c r="H49" s="3">
-        <v>7234100</v>
+        <v>6778000</v>
       </c>
       <c r="I49" s="3">
-        <v>6219400</v>
+        <v>5827300</v>
       </c>
       <c r="J49" s="3">
-        <v>14105300</v>
+        <v>13216000</v>
       </c>
       <c r="K49" s="3">
         <v>5415200</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1469800</v>
+        <v>1377200</v>
       </c>
       <c r="E52" s="3">
-        <v>486000</v>
+        <v>455300</v>
       </c>
       <c r="F52" s="3">
-        <v>571000</v>
+        <v>535000</v>
       </c>
       <c r="G52" s="3">
-        <v>702400</v>
+        <v>658100</v>
       </c>
       <c r="H52" s="3">
-        <v>708600</v>
+        <v>664000</v>
       </c>
       <c r="I52" s="3">
-        <v>735800</v>
+        <v>689500</v>
       </c>
       <c r="J52" s="3">
-        <v>1207200</v>
+        <v>1131100</v>
       </c>
       <c r="K52" s="3">
         <v>556800</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22147400</v>
+        <v>20751100</v>
       </c>
       <c r="E54" s="3">
-        <v>23362400</v>
+        <v>21889500</v>
       </c>
       <c r="F54" s="3">
-        <v>23889700</v>
+        <v>22383500</v>
       </c>
       <c r="G54" s="3">
-        <v>23726400</v>
+        <v>22230600</v>
       </c>
       <c r="H54" s="3">
-        <v>22434900</v>
+        <v>21020500</v>
       </c>
       <c r="I54" s="3">
-        <v>20954600</v>
+        <v>19633500</v>
       </c>
       <c r="J54" s="3">
-        <v>19437400</v>
+        <v>18212000</v>
       </c>
       <c r="K54" s="3">
         <v>20509600</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>948800</v>
+        <v>889000</v>
       </c>
       <c r="E57" s="3">
-        <v>1017400</v>
+        <v>953300</v>
       </c>
       <c r="F57" s="3">
-        <v>540200</v>
+        <v>506100</v>
       </c>
       <c r="G57" s="3">
-        <v>491200</v>
+        <v>460200</v>
       </c>
       <c r="H57" s="3">
-        <v>387100</v>
+        <v>362700</v>
       </c>
       <c r="I57" s="3">
-        <v>307700</v>
+        <v>288300</v>
       </c>
       <c r="J57" s="3">
-        <v>3559300</v>
+        <v>3334900</v>
       </c>
       <c r="K57" s="3">
         <v>800700</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1822500</v>
+        <v>1707600</v>
       </c>
       <c r="E58" s="3">
-        <v>2629600</v>
+        <v>2463800</v>
       </c>
       <c r="F58" s="3">
-        <v>3007100</v>
+        <v>2817500</v>
       </c>
       <c r="G58" s="3">
-        <v>1462000</v>
+        <v>1369800</v>
       </c>
       <c r="H58" s="3">
-        <v>865400</v>
+        <v>810900</v>
       </c>
       <c r="I58" s="3">
-        <v>1685300</v>
+        <v>1579100</v>
       </c>
       <c r="J58" s="3">
-        <v>1189700</v>
+        <v>1114700</v>
       </c>
       <c r="K58" s="3">
         <v>1329400</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5039400</v>
+        <v>4721700</v>
       </c>
       <c r="E59" s="3">
-        <v>5232100</v>
+        <v>4902200</v>
       </c>
       <c r="F59" s="3">
-        <v>5440200</v>
+        <v>5097200</v>
       </c>
       <c r="G59" s="3">
-        <v>5570700</v>
+        <v>5219500</v>
       </c>
       <c r="H59" s="3">
-        <v>5155400</v>
+        <v>4830400</v>
       </c>
       <c r="I59" s="3">
-        <v>3984800</v>
+        <v>3733600</v>
       </c>
       <c r="J59" s="3">
-        <v>5755900</v>
+        <v>5393000</v>
       </c>
       <c r="K59" s="3">
         <v>3739300</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7810700</v>
+        <v>7318300</v>
       </c>
       <c r="E60" s="3">
-        <v>8879100</v>
+        <v>8319300</v>
       </c>
       <c r="F60" s="3">
-        <v>8987400</v>
+        <v>8420800</v>
       </c>
       <c r="G60" s="3">
-        <v>7523800</v>
+        <v>7049500</v>
       </c>
       <c r="H60" s="3">
-        <v>6091100</v>
+        <v>5707100</v>
       </c>
       <c r="I60" s="3">
-        <v>5136700</v>
+        <v>4812800</v>
       </c>
       <c r="J60" s="3">
-        <v>5087000</v>
+        <v>4766300</v>
       </c>
       <c r="K60" s="3">
         <v>5867600</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6475700</v>
+        <v>6067400</v>
       </c>
       <c r="E61" s="3">
-        <v>5973300</v>
+        <v>5596700</v>
       </c>
       <c r="F61" s="3">
-        <v>6992700</v>
+        <v>6551800</v>
       </c>
       <c r="G61" s="3">
-        <v>7387600</v>
+        <v>6921900</v>
       </c>
       <c r="H61" s="3">
-        <v>7076300</v>
+        <v>6630100</v>
       </c>
       <c r="I61" s="3">
-        <v>5905400</v>
+        <v>5533100</v>
       </c>
       <c r="J61" s="3">
-        <v>4611500</v>
+        <v>4320700</v>
       </c>
       <c r="K61" s="3">
         <v>2855300</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1555600</v>
+        <v>1457600</v>
       </c>
       <c r="E62" s="3">
-        <v>1292200</v>
+        <v>1210700</v>
       </c>
       <c r="F62" s="3">
-        <v>1495300</v>
+        <v>1401000</v>
       </c>
       <c r="G62" s="3">
-        <v>1505600</v>
+        <v>1410700</v>
       </c>
       <c r="H62" s="3">
-        <v>1335300</v>
+        <v>1251100</v>
       </c>
       <c r="I62" s="3">
-        <v>992400</v>
+        <v>929900</v>
       </c>
       <c r="J62" s="3">
-        <v>1038900</v>
+        <v>973400</v>
       </c>
       <c r="K62" s="3">
         <v>1071600</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16422000</v>
+        <v>15386700</v>
       </c>
       <c r="E66" s="3">
-        <v>16704900</v>
+        <v>15651700</v>
       </c>
       <c r="F66" s="3">
-        <v>17998400</v>
+        <v>16863700</v>
       </c>
       <c r="G66" s="3">
-        <v>16956600</v>
+        <v>15887600</v>
       </c>
       <c r="H66" s="3">
-        <v>15052700</v>
+        <v>14103700</v>
       </c>
       <c r="I66" s="3">
-        <v>12459700</v>
+        <v>11674200</v>
       </c>
       <c r="J66" s="3">
-        <v>10943700</v>
+        <v>10253700</v>
       </c>
       <c r="K66" s="3">
         <v>10153300</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4955100</v>
+        <v>4642700</v>
       </c>
       <c r="E72" s="3">
-        <v>6005900</v>
+        <v>5627300</v>
       </c>
       <c r="F72" s="3">
-        <v>4823500</v>
+        <v>4519400</v>
       </c>
       <c r="G72" s="3">
-        <v>5243700</v>
+        <v>4913100</v>
       </c>
       <c r="H72" s="3">
-        <v>6206000</v>
+        <v>5814700</v>
       </c>
       <c r="I72" s="3">
-        <v>8018100</v>
+        <v>7512600</v>
       </c>
       <c r="J72" s="3">
-        <v>17592900</v>
+        <v>16483800</v>
       </c>
       <c r="K72" s="3">
         <v>9950600</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5725400</v>
+        <v>5364400</v>
       </c>
       <c r="E76" s="3">
-        <v>6657500</v>
+        <v>6237700</v>
       </c>
       <c r="F76" s="3">
-        <v>5891300</v>
+        <v>5519900</v>
       </c>
       <c r="G76" s="3">
-        <v>6769800</v>
+        <v>6343000</v>
       </c>
       <c r="H76" s="3">
-        <v>7382200</v>
+        <v>6916800</v>
       </c>
       <c r="I76" s="3">
-        <v>8494900</v>
+        <v>7959400</v>
       </c>
       <c r="J76" s="3">
-        <v>8493800</v>
+        <v>7958300</v>
       </c>
       <c r="K76" s="3">
         <v>10356200</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1705700</v>
+        <v>1598200</v>
       </c>
       <c r="E81" s="3">
-        <v>1387500</v>
+        <v>1300000</v>
       </c>
       <c r="F81" s="3">
-        <v>327800</v>
+        <v>307100</v>
       </c>
       <c r="G81" s="3">
-        <v>395300</v>
+        <v>370400</v>
       </c>
       <c r="H81" s="3">
-        <v>1039400</v>
+        <v>973900</v>
       </c>
       <c r="I81" s="3">
-        <v>1012800</v>
+        <v>949000</v>
       </c>
       <c r="J81" s="3">
-        <v>1020000</v>
+        <v>955700</v>
       </c>
       <c r="K81" s="3">
         <v>883400</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2413800</v>
+        <v>2261600</v>
       </c>
       <c r="E83" s="3">
-        <v>2566600</v>
+        <v>2404800</v>
       </c>
       <c r="F83" s="3">
-        <v>3245900</v>
+        <v>3041300</v>
       </c>
       <c r="G83" s="3">
-        <v>2381200</v>
+        <v>2231100</v>
       </c>
       <c r="H83" s="3">
-        <v>1802200</v>
+        <v>1688500</v>
       </c>
       <c r="I83" s="3">
-        <v>1607400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2573400</v>
+        <v>1506100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>2422700</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4214100</v>
+        <v>3948400</v>
       </c>
       <c r="E89" s="3">
-        <v>4715200</v>
+        <v>4417900</v>
       </c>
       <c r="F89" s="3">
-        <v>4605900</v>
+        <v>4315500</v>
       </c>
       <c r="G89" s="3">
-        <v>4296600</v>
+        <v>4025700</v>
       </c>
       <c r="H89" s="3">
-        <v>3919600</v>
+        <v>3672500</v>
       </c>
       <c r="I89" s="3">
-        <v>4283100</v>
+        <v>4013000</v>
       </c>
       <c r="J89" s="3">
-        <v>2779200</v>
+        <v>2604000</v>
       </c>
       <c r="K89" s="3">
         <v>3340400</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2432900</v>
+        <v>-2279500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2399900</v>
+        <v>-2248600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2747300</v>
+        <v>-2574100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2451000</v>
+        <v>-2296500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2396000</v>
+        <v>-2245000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1807700</v>
+        <v>-1693700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1955900</v>
+        <v>-1832600</v>
       </c>
       <c r="K91" s="3">
         <v>-1635100</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71000</v>
+        <v>-66500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1398200</v>
+        <v>-1310000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2443700</v>
+        <v>-2289700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2348300</v>
+        <v>-2200300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2431200</v>
+        <v>-2278000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2386900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2653700</v>
+        <v>-2236400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-1781800</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2128300</v>
+        <v>-1994200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1383000</v>
+        <v>-1295800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1302200</v>
+        <v>-1220100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1241700</v>
+        <v>-1163400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1223600</v>
+        <v>-1146400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1069800</v>
+        <v>-1002300</v>
       </c>
       <c r="J96" s="3">
-        <v>-917600</v>
+        <v>-859800</v>
       </c>
       <c r="K96" s="3">
         <v>-765200</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4572200</v>
+        <v>-4283900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3442800</v>
+        <v>-3225700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1046400</v>
+        <v>-980400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1741600</v>
+        <v>-1631800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1605500</v>
+        <v>-1504300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1594200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-546900</v>
+        <v>-1493700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-1586600</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32900</v>
+        <v>-30800</v>
       </c>
       <c r="E101" s="3">
-        <v>52600</v>
+        <v>49300</v>
       </c>
       <c r="F101" s="3">
-        <v>-51600</v>
+        <v>-48400</v>
       </c>
       <c r="G101" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="H101" s="3">
-        <v>107300</v>
+        <v>100600</v>
       </c>
       <c r="I101" s="3">
-        <v>65700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-52800</v>
+        <v>61500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-59300</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-462000</v>
+        <v>-432900</v>
       </c>
       <c r="E102" s="3">
-        <v>-73200</v>
+        <v>-68600</v>
       </c>
       <c r="F102" s="3">
-        <v>1064100</v>
+        <v>997000</v>
       </c>
       <c r="G102" s="3">
-        <v>216100</v>
+        <v>202400</v>
       </c>
       <c r="H102" s="3">
-        <v>-9800</v>
+        <v>-9200</v>
       </c>
       <c r="I102" s="3">
-        <v>367600</v>
+        <v>344500</v>
       </c>
       <c r="J102" s="3">
-        <v>-474200</v>
+        <v>-444300</v>
       </c>
       <c r="K102" s="3">
         <v>-87000</v>
